--- a/Lines/Northern Line.xlsx
+++ b/Lines/Northern Line.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB80FE1-E643-4D67-ACB1-4A7A9B6B6D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardy/projects/tube-map/Lines/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B317B56D-03A6-DC46-B0B5-EF49F0DB9744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="19160" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +56,6 @@
     <t>Totteridge &amp; Whetstone</t>
   </si>
   <si>
-    <t>Woodside</t>
-  </si>
-  <si>
     <t>West Finchley</t>
   </si>
   <si>
@@ -190,13 +192,16 @@
   </si>
   <si>
     <t>Chalk Farm</t>
+  </si>
+  <si>
+    <t>Woodside Park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,16 +549,16 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -581,26 +586,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -609,82 +614,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -693,68 +698,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>17</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -763,96 +768,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>24</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -861,152 +866,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1015,12 +1020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1029,12 +1034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1043,26 +1048,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1071,12 +1076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1085,124 +1090,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>49</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1211,26 +1216,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1239,12 +1244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>3</v>
